--- a/Excels/chest.xlsx
+++ b/Excels/chest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="16480"/>
+    <workbookView windowWidth="25960" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>chest_id</t>
   </si>
@@ -37,7 +37,7 @@
     <t>chest_type</t>
   </si>
   <si>
-    <t>item_ids</t>
+    <t>item_types</t>
   </si>
   <si>
     <t>weights</t>
@@ -52,13 +52,16 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>int[][]</t>
+  </si>
+  <si>
     <t>[1,2,3,4,5]</t>
   </si>
   <si>
     <t>[2,2,2,2,2]</t>
   </si>
   <si>
-    <t>[100,100,100,100,100]</t>
+    <t>[[1,100],[1,100],[1,100],[1,100],[1,100]]</t>
   </si>
 </sst>
 </file>
@@ -992,10 +995,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="11.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="13.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1028,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1039,13 +1046,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1056,13 +1063,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
